--- a/registro_nao_conformidades.xlsx
+++ b/registro_nao_conformidades.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>Número de Registro</t>
   </si>
@@ -43,37 +43,50 @@
     <t>Responsável pela Ação Corretiva</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>emooooo</t>
-  </si>
-  <si>
-    <t>789789</t>
+    <t>Valeria</t>
+  </si>
+  <si>
+    <t>4568979*796</t>
   </si>
   <si>
     <t>Coleta: Troca de paciente</t>
   </si>
   <si>
-    <t>testetestet</t>
-  </si>
-  <si>
-    <t>testetets</t>
+    <t>teste val</t>
+  </si>
+  <si>
+    <t>teste acao val</t>
+  </si>
+  <si>
+    <t>Emerson</t>
+  </si>
+  <si>
+    <t>6589</t>
+  </si>
+  <si>
+    <t>teste fato</t>
+  </si>
+  <si>
+    <t>teste acao</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="180" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -81,19 +94,356 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -116,22 +466,316 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
+    <cellStyle name="40% - Ênfase 4" xfId="3" builtinId="43"/>
+    <cellStyle name="Porcentagem" xfId="4" builtinId="5"/>
+    <cellStyle name="Célula Vinculada" xfId="5" builtinId="24"/>
+    <cellStyle name="Célula de Verificação" xfId="6" builtinId="23"/>
+    <cellStyle name="Moeda [0]" xfId="7" builtinId="7"/>
+    <cellStyle name="20% - Ênfase 3" xfId="8" builtinId="38"/>
+    <cellStyle name="Moeda" xfId="9" builtinId="4"/>
+    <cellStyle name="Hyperlink seguido" xfId="10" builtinId="9"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8"/>
+    <cellStyle name="40% - Ênfase 2" xfId="12" builtinId="35"/>
+    <cellStyle name="Observação" xfId="13" builtinId="10"/>
+    <cellStyle name="40% - Ênfase 6" xfId="14" builtinId="51"/>
+    <cellStyle name="Texto de Aviso" xfId="15" builtinId="11"/>
+    <cellStyle name="Título" xfId="16" builtinId="15"/>
+    <cellStyle name="Texto Explicativo" xfId="17" builtinId="53"/>
+    <cellStyle name="Ênfase 3" xfId="18" builtinId="37"/>
+    <cellStyle name="Título 1" xfId="19" builtinId="16"/>
+    <cellStyle name="Ênfase 4" xfId="20" builtinId="41"/>
+    <cellStyle name="Título 2" xfId="21" builtinId="17"/>
+    <cellStyle name="Ênfase 5" xfId="22" builtinId="45"/>
+    <cellStyle name="Título 3" xfId="23" builtinId="18"/>
+    <cellStyle name="Ênfase 6" xfId="24" builtinId="49"/>
+    <cellStyle name="Título 4" xfId="25" builtinId="19"/>
+    <cellStyle name="Entrada" xfId="26" builtinId="20"/>
+    <cellStyle name="Saída" xfId="27" builtinId="21"/>
+    <cellStyle name="Cálculo" xfId="28" builtinId="22"/>
+    <cellStyle name="Total" xfId="29" builtinId="25"/>
+    <cellStyle name="40% - Ênfase 1" xfId="30" builtinId="31"/>
+    <cellStyle name="Bom" xfId="31" builtinId="26"/>
+    <cellStyle name="Ruim" xfId="32" builtinId="27"/>
+    <cellStyle name="Neutro" xfId="33" builtinId="28"/>
+    <cellStyle name="20% - Ênfase 5" xfId="34" builtinId="46"/>
+    <cellStyle name="Ênfase 1" xfId="35" builtinId="29"/>
+    <cellStyle name="20% - Ênfase 1" xfId="36" builtinId="30"/>
+    <cellStyle name="60% - Ênfase 1" xfId="37" builtinId="32"/>
+    <cellStyle name="20% - Ênfase 6" xfId="38" builtinId="50"/>
+    <cellStyle name="Ênfase 2" xfId="39" builtinId="33"/>
+    <cellStyle name="20% - Ênfase 2" xfId="40" builtinId="34"/>
+    <cellStyle name="60% - Ênfase 2" xfId="41" builtinId="36"/>
+    <cellStyle name="40% - Ênfase 3" xfId="42" builtinId="39"/>
+    <cellStyle name="60% - Ênfase 3" xfId="43" builtinId="40"/>
+    <cellStyle name="20% - Ênfase 4" xfId="44" builtinId="42"/>
+    <cellStyle name="60% - Ênfase 4" xfId="45" builtinId="44"/>
+    <cellStyle name="40% - Ênfase 5" xfId="46" builtinId="47"/>
+    <cellStyle name="60% - Ênfase 5" xfId="47" builtinId="48"/>
+    <cellStyle name="60% - Ênfase 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -414,17 +1058,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2"/>
+  <cols>
+    <col min="1" max="1" width="20.4285714285714" customWidth="1"/>
+    <col min="2" max="3" width="19.5714285714286" customWidth="1"/>
+    <col min="4" max="4" width="31.4285714285714" customWidth="1"/>
+    <col min="5" max="5" width="19.2857142857143" customWidth="1"/>
+    <col min="6" max="6" width="27.1428571428571" customWidth="1"/>
+    <col min="7" max="7" width="10.1428571428571" customWidth="1"/>
+    <col min="8" max="8" width="24.2857142857143" customWidth="1"/>
+    <col min="9" max="9" width="32.8571428571429" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
@@ -456,35 +1112,65 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" t="s">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2">
+        <v>45102</v>
+      </c>
+      <c r="C2" s="2">
+        <v>45102</v>
+      </c>
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2">
-        <v>45100</v>
-      </c>
-      <c r="C2" s="2">
-        <v>45100</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2">
+        <v>45103</v>
+      </c>
+      <c r="C3" s="2">
+        <v>45103</v>
+      </c>
+      <c r="D3" t="s">
         <v>14</v>
       </c>
-      <c r="I2" t="s">
-        <v>10</v>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>